--- a/data/trans_bre/IP16B01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16B01-Edad-trans_bre.xlsx
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,59</t>
+          <t>-23,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-16,85</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,71%</t>
+          <t>-24,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-18,18%</t>
+          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 10,41</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-40,65; -9,54</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-15,11; 21,33</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-25,26; 9,04</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-35,59; 0,84</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 11,08</t>
+          <t>-42,34; -10,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-38,26; 0,38</t>
+          <t>-16,77; 31,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-23,88</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>-16,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-24,86%</t>
+          <t>-9,71%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>-18,18%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-40,65; -9,54</t>
+          <t>-25,26; 9,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 21,33</t>
+          <t>-35,59; 0,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,34; -10,6</t>
+          <t>-26,92; 11,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 31,78</t>
+          <t>-38,26; 0,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16B01-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-4,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,73</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,63%</t>
+          <t>-4,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,55%</t>
+          <t>-3,71%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 7,43</t>
+          <t>-16,22; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 6,41</t>
+          <t>-17,14; 9,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,19 +662,19 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 8,49</t>
+          <t>-16,22; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 7,34</t>
+          <t>-18,43; 10,78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-23,88</t>
+          <t>-8,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-24,86%</t>
+          <t>-9,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>-7,79%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,41</t>
+          <t>0,0; 10,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,65; -9,54</t>
+          <t>-20,51; 3,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 21,33</t>
+          <t>-23,54; 8,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,19 +742,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,34; -10,6</t>
+          <t>-22,58; 4,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 31,78</t>
+          <t>-25,47; 9,41</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,59</t>
+          <t>-26,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-16,85</t>
+          <t>17,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -784,12 +784,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,71%</t>
+          <t>-27,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,18%</t>
+          <t>26,28%</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 9,04</t>
+          <t>-49,17; -6,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-35,59; 0,84</t>
+          <t>-6,93; 44,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,19 +822,19 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 11,08</t>
+          <t>-50,83; -6,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-38,26; 0,38</t>
+          <t>-7,98; 101,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,09</t>
+          <t>-10,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,61</t>
+          <t>-44,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,87%</t>
+          <t>-12,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>-44,23%</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-19,16; -3,56</t>
+          <t>-31,48; 17,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,04; 3,5</t>
+          <t>-71,43; -19,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,19 +902,107 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -3,97</t>
+          <t>-34,81; 23,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 4,18</t>
+          <t>-71,43; -19,94</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-11,09</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-6,61</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-11,87%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-7,49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,39</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-18,81; -3,22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-17,06; 3,14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-20,04; -3,64</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-18,58; 3,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/IP16B01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16B01-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 0,0</t>
+          <t>-14,47; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 9,69</t>
+          <t>-16,6; 9,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,22; 0,0</t>
+          <t>-14,47; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 10,78</t>
+          <t>-18,02; 10,09</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,87</t>
+          <t>0,0; 11,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 3,8</t>
+          <t>-22,62; 2,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 8,2</t>
+          <t>-21,91; 8,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 4,23</t>
+          <t>-24,47; 2,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,47; 9,41</t>
+          <t>-23,81; 10,15</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-49,17; -6,16</t>
+          <t>-50,4; -6,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 44,0</t>
+          <t>-4,61; 46,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-50,83; -6,92</t>
+          <t>-51,63; -7,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 101,02</t>
+          <t>-5,4; 105,04</t>
         </is>
       </c>
     </row>
@@ -887,12 +887,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 17,95</t>
+          <t>-31,95; 18,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,43; -19,94</t>
+          <t>-72,49; -20,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,81; 23,45</t>
+          <t>-34,74; 26,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,43; -19,94</t>
+          <t>-72,49; -20,33</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,81; -3,22</t>
+          <t>-18,8; -4,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 3,14</t>
+          <t>-15,76; 4,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,04; -3,64</t>
+          <t>-20,03; -4,82</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 3,4</t>
+          <t>-17,36; 5,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16B01-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16B01-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,12 +647,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 0,0</t>
+          <t>-16,17; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 9,25</t>
+          <t>-18,83; 9,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,47; 0,0</t>
+          <t>-16,17; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,02; 10,09</t>
+          <t>-19,65; 9,69</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,12</t>
+          <t>0,0; 9,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 2,15</t>
+          <t>-21,1; 3,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,91; 8,46</t>
+          <t>-22,34; 7,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 2,42</t>
+          <t>-23,05; 4,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 10,15</t>
+          <t>-23,89; 8,36</t>
         </is>
       </c>
     </row>
@@ -807,12 +807,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-50,4; -6,85</t>
+          <t>-50,37; -5,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 46,28</t>
+          <t>-8,65; 43,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-51,63; -7,83</t>
+          <t>-51,92; -5,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 105,04</t>
+          <t>-9,93; 92,69</t>
         </is>
       </c>
     </row>
@@ -887,12 +887,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 18,45</t>
+          <t>-32,75; 16,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,49; -20,33</t>
+          <t>-72,7; -19,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,74; 26,32</t>
+          <t>-35,71; 23,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,49; -20,33</t>
+          <t>-72,7; -19,71</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,65</t>
+          <t>0,0; 3,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,8; -4,28</t>
+          <t>-19,16; -3,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 4,37</t>
+          <t>-16,04; 3,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,03; -4,82</t>
+          <t>-20,3; -3,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 5,16</t>
+          <t>-17,48; 4,18</t>
         </is>
       </c>
     </row>
